--- a/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
+++ b/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
@@ -555,12 +555,6 @@
     <t>ID55</t>
   </si>
   <si>
-    <t>ID56</t>
-  </si>
-  <si>
-    <t>ID57</t>
-  </si>
-  <si>
     <t>1. 받은쪽지함 출력
 2. 보낸쪽지함 출력</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -660,6 +654,12 @@
   </si>
   <si>
     <t>ID10</t>
+  </si>
+  <si>
+    <t>ID17</t>
+  </si>
+  <si>
+    <t>ID18</t>
   </si>
 </sst>
 </file>
@@ -930,13 +930,106 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,122 +1039,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1435,13 +1432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="13"/>
+    <col min="1" max="1" width="11.25" style="1"/>
     <col min="2" max="3" width="10.75"/>
     <col min="4" max="5" width="15.625"/>
     <col min="6" max="6" width="7.375"/>
@@ -1454,1325 +1451,1552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="16"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3" t="s">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3" t="s">
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" ht="186.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3" t="s">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="1:12" s="22" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="35"/>
-    </row>
-    <row r="33" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L33" s="35"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="243">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="H72:J72"/>
@@ -2789,233 +3013,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
+++ b/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
@@ -1293,27 +1293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,8 +1308,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1731,36 +1731,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -1835,100 +1835,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -1948,1335 +1948,1108 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="16" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="16" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="16" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="16" t="s">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="16" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="16" t="s">
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="19" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="16" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="186.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="19" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="16" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="19" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="16" t="s">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="16" t="s">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="18" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="16" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="16" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="14" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="16" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="14" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="16" t="s">
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="16" t="s">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="14" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="16" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="16" t="s">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
     </row>
     <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="11"/>
       <c r="I66" s="12"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="H72:J72"/>
@@ -3293,6 +3066,233 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3330,36 +3330,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3438,100 +3438,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3551,136 +3551,132 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
@@ -3689,14 +3685,18 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3730,36 +3730,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3838,100 +3838,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3951,224 +3951,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4181,6 +4153,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4214,36 +4214,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4322,100 +4322,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4435,224 +4435,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4665,6 +4637,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4698,36 +4698,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4806,100 +4806,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4919,224 +4919,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5149,6 +5121,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5163,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5177,36 +5177,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5285,100 +5285,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -5398,202 +5398,174 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5606,6 +5578,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
+++ b/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="403" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17715" windowHeight="7620" tabRatio="403" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">방명록!$A$1:$L$21</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="185">
   <si>
     <t>통합 테스트 결과</t>
   </si>
@@ -1054,6 +1055,10 @@
   </si>
   <si>
     <t>1. 세션값이 null 값인 경우에는 등록,수정,삭제,추천을 할수 없고 오로지 댓글을 보기만 할수 있는가?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1293,6 +1298,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,29 +1334,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1731,36 +1736,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -1835,100 +1840,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -1948,1108 +1953,1335 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="21" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="23" t="s">
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="24" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="24" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="23" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="186.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="24" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="23" t="s">
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="23" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23" t="s">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="25" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="23" t="s">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="23" t="s">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="21" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="23" t="s">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="23"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="21" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23" t="s">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="23"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="23" t="s">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="23"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="23" t="s">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="23"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="12"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="243">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="H72:J72"/>
@@ -3066,233 +3298,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3330,36 +3335,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3438,100 +3443,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3551,124 +3556,144 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
@@ -3677,26 +3702,6 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3730,36 +3735,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3838,100 +3843,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3951,196 +3956,224 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4153,34 +4186,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4214,36 +4219,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4322,100 +4327,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4435,196 +4440,224 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4637,34 +4670,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4698,36 +4703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4806,100 +4811,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4919,196 +4924,224 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5121,34 +5154,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5177,36 +5182,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5285,100 +5290,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -5398,174 +5403,204 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5578,34 +5613,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
+++ b/CD_Inside_web/src/main/webapp/resources/file/cdinside_통합테스트.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYDT\git\CD_INSIDE\CD_Inside_web\src\main\webapp\resources\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17715" windowHeight="7620" tabRatio="403" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17715" windowHeight="7620" tabRatio="403"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +27,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">방명록!$A$1:$L$21</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="182">
   <si>
     <t>통합 테스트 결과</t>
   </si>
@@ -502,13 +506,6 @@
     <t>ID14</t>
   </si>
   <si>
-    <t>메인화면&gt;마이페이지&gt;쪽지함&gt;쪽지검색</t>
-  </si>
-  <si>
-    <t>1. 받은쪽지함에서 보낸이, 내용을 검색 했을 때 해당하는 내용이 출력
-2. 보낸쪽지함에서 보낸이, 내용을 검색 했을 때 해당하는 내용이 출력</t>
-  </si>
-  <si>
     <t>ID15</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
   </si>
   <si>
     <t>ID54</t>
-  </si>
-  <si>
-    <t>ID55</t>
   </si>
   <si>
     <t>[갤로그 홈]</t>
@@ -1065,7 +1059,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1255,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,24 +1293,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,8 +1310,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1424,6 +1421,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1471,7 +1471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1506,7 +1506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,36 +1736,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -1840,100 +1840,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -1953,1108 +1953,1311 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="16" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="16" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="16" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="16" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="16" t="s">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="16" t="s">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="19" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="16" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="186.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="19" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="16" t="s">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="19" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="16" t="s">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="16" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="18" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="16" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="16" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="14" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="16" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="14" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="16" t="s">
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="16" t="s">
+      <c r="B32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-    </row>
-    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-    </row>
-    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-    </row>
-    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-    </row>
-    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="243">
+  <mergeCells count="239">
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
@@ -3067,237 +3270,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:L71"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3307,7 +3279,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="72" max="16383" man="1"/>
+    <brk id="71" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3335,36 +3307,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3411,7 +3383,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -3421,7 +3393,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>9</v>
@@ -3443,100 +3415,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3556,136 +3528,132 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="B16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="B17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
@@ -3694,14 +3662,18 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3735,36 +3707,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3811,7 +3783,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -3821,7 +3793,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>9</v>
@@ -3843,100 +3815,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -3956,224 +3928,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="B16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="B17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="B19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="B20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="B21" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4186,6 +4130,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4219,36 +4191,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4295,7 +4267,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -4305,7 +4277,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>9</v>
@@ -4327,100 +4299,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4440,224 +4412,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="B16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="B17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="B19" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="B20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="B21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -4670,6 +4614,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4703,36 +4675,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4779,7 +4751,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -4789,7 +4761,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>9</v>
@@ -4811,100 +4783,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -4924,224 +4896,196 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="B16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="B17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20" t="s">
+      <c r="B19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="B20" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="B21" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5154,6 +5098,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5168,7 +5140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:G20"/>
     </sheetView>
   </sheetViews>
@@ -5182,36 +5154,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5258,7 +5230,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
@@ -5268,10 +5240,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -5290,100 +5262,100 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -5403,204 +5375,176 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="20" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="20" t="s">
+      <c r="B16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="B19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -5613,6 +5557,34 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
